--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -55,6 +55,15 @@
   </x:si>
   <x:si>
     <x:t>احمد محمد عزت عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
   </x:si>
   <x:si>
     <x:t>1230297</x:t>
@@ -266,7 +275,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -566,7 +575,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -747,9 +756,11 @@
       <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
+      <x:c r="D5" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.4968006597</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -772,16 +783,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
+      <x:c r="D6" s="2" t="s"/>
       <x:c r="E6" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45914.4968006597</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -813,7 +822,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -845,7 +854,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -877,7 +886,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -909,7 +918,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -941,7 +950,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -973,7 +982,7 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1086,6 +1095,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -64,12 +64,6 @@
   </x:si>
   <x:si>
     <x:t>Hazem Essmat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زينة شادي عبداللطيف الشاذلي</x:t>
   </x:si>
   <x:si>
     <x:t>1240326</x:t>
@@ -275,7 +269,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -575,7 +569,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -788,9 +782,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.4968006597</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -813,16 +809,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -845,16 +841,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -877,16 +873,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -909,16 +905,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -941,16 +937,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -973,16 +969,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1005,16 +1001,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1037,16 +1033,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1069,16 +1065,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1095,38 +1091,6 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:20">
-      <x:c r="A16" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E16" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F16" s="2" t="s"/>
-      <x:c r="G16" s="2" t="s"/>
-      <x:c r="H16" s="2" t="s"/>
-      <x:c r="I16" s="2" t="s"/>
-      <x:c r="J16" s="2" t="s"/>
-      <x:c r="K16" s="2" t="s"/>
-      <x:c r="L16" s="2" t="s"/>
-      <x:c r="M16" s="2" t="s"/>
-      <x:c r="N16" s="2" t="s"/>
-      <x:c r="O16" s="2" t="s"/>
-      <x:c r="P16" s="2" t="s"/>
-      <x:c r="Q16" s="2" t="s"/>
-      <x:c r="R16" s="2" t="s"/>
-      <x:c r="S16" s="2" t="s"/>
-      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -54,7 +54,10 @@
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
-    <x:t>احمد محمد عزت عطية</x:t>
+    <x:t>احمد محمد عزت عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250170</x:t>
@@ -720,7 +723,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s"/>
+      <x:c r="D4" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="E4" s="3">
         <x:v>45908.4193848727</x:v>
       </x:c>
@@ -745,13 +750,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
         <x:v>45921.6597929745</x:v>
@@ -777,13 +782,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
         <x:v>45907.8846416667</x:v>
@@ -809,13 +814,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
         <x:v>45907.4224606482</x:v>
@@ -841,13 +846,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
         <x:v>45907.4148197569</x:v>
@@ -873,13 +878,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.418944213</x:v>
@@ -905,13 +910,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45908.4156501505</x:v>
@@ -937,13 +942,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45914.9351319444</x:v>
@@ -969,13 +974,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45909.4159330671</x:v>
@@ -1001,13 +1006,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45913.6394548958</x:v>
@@ -1033,13 +1038,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45909.9010288194</x:v>
@@ -1065,13 +1070,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45906.4157806366</x:v>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240015</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمد عبدالله شبل الشامى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Mohamed Abdullah Shebl</x:t>
   </x:si>
   <x:si>
     <x:t>1220303</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -695,7 +686,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6888760069</x:v>
+        <x:v>45908.4193848727</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -727,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45908.4193848727</x:v>
+        <x:v>45921.6597929745</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -759,7 +750,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -791,7 +782,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,7 +814,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +846,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -87,6 +87,15 @@
     <x:t>Abdelrahman Ahmed Abdalla Ibrahim Mahmoud ElShaarawy</x:t>
   </x:si>
   <x:si>
+    <x:t>1240330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن رمضان رشاد العزب محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Ramadan Rashad Elazab Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230056</x:t>
   </x:si>
   <x:si>
@@ -96,6 +105,24 @@
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
   </x:si>
   <x:si>
+    <x:t>2240008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على الدين خالد على شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali eldin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240126</x:t>
   </x:si>
   <x:si>
@@ -114,13 +141,22 @@
     <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
   </x:si>
   <x:si>
-    <x:t>1200276</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى محمد سعيد ابراهيم عمر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mostafa mohamed saied ibrahim omar</x:t>
+    <x:t>1240160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هادى عبدالعال رضا عبدالعال سلطان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hady Abdelaal Reda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هشام طارق احمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hesham Tarek Ahmed Awad</x:t>
   </x:si>
   <x:si>
     <x:t>4230182</x:t>
@@ -130,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Hala Hany Ramadan Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssab Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>4230173</x:t>
@@ -263,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -846,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.4708532407</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1100,166 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45927.4628210995</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45913.6394548958</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45927.4643342245</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:20">
+      <x:c r="A18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E18" s="3">
+        <x:v>45909.9010288194</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s"/>
+      <x:c r="G18" s="2" t="s"/>
+      <x:c r="H18" s="2" t="s"/>
+      <x:c r="I18" s="2" t="s"/>
+      <x:c r="J18" s="2" t="s"/>
+      <x:c r="K18" s="2" t="s"/>
+      <x:c r="L18" s="2" t="s"/>
+      <x:c r="M18" s="2" t="s"/>
+      <x:c r="N18" s="2" t="s"/>
+      <x:c r="O18" s="2" t="s"/>
+      <x:c r="P18" s="2" t="s"/>
+      <x:c r="Q18" s="2" t="s"/>
+      <x:c r="R18" s="2" t="s"/>
+      <x:c r="S18" s="2" t="s"/>
+      <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -60,6 +60,15 @@
     <x:t>Hazem Essmat</x:t>
   </x:si>
   <x:si>
+    <x:t>1240055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>رامى أسامة بحر توفيق</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ramy Osama Bahr Tawfik</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240326</x:t>
   </x:si>
   <x:si>
@@ -166,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Hala Hany Ramadan Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssab Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>4230173</x:t>
@@ -795,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45927.8435893171</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4708532407</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.4708532407</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4224887731</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.5063372685</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4643342245</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Mohamed Ezzat Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250170</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hazem Essmat</x:t>
   </x:si>
   <x:si>
     <x:t>1240055</x:t>
@@ -308,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -763,7 +754,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45921.6597929745</x:v>
+        <x:v>45927.8435893171</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -795,7 +786,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.8435893171</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -827,7 +818,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -859,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -891,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45927.4708532407</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -923,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4708532407</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -955,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -987,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4224887731</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1019,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.5063372685</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1051,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45914.9351319444</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1228,38 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد احمد عبدالحميد ابراهيم المسيري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ahmed Abd Elhamid</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220303</x:t>
   </x:si>
   <x:si>
@@ -132,13 +141,13 @@
     <x:t>Lugi George maher</x:t>
   </x:si>
   <x:si>
-    <x:t>1220281</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفي محمد حسن محمد حلمي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moustafa Mohamed Hassan Mohamed Helmy</x:t>
+    <x:t>1240379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند ياسر  صلاح حامد حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohaned Yaser Salah Hamed Hasanien</x:t>
   </x:si>
   <x:si>
     <x:t>1240160</x:t>
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -722,7 +731,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45908.4193848727</x:v>
+        <x:v>45929.3677438657</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -754,7 +763,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.8435893171</x:v>
+        <x:v>45908.4193848727</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -786,7 +795,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45927.8435893171</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -818,7 +827,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -850,7 +859,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -882,7 +891,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45927.4708532407</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -914,7 +923,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.4708532407</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -946,7 +955,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4224887731</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +987,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.5063372685</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1019,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.9351319444</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1083,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45929.3357704861</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1115,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1147,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1179,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1202,7 +1211,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1219,6 +1228,38 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:20">
+      <x:c r="A19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E19" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s"/>
+      <x:c r="G19" s="2" t="s"/>
+      <x:c r="H19" s="2" t="s"/>
+      <x:c r="I19" s="2" t="s"/>
+      <x:c r="J19" s="2" t="s"/>
+      <x:c r="K19" s="2" t="s"/>
+      <x:c r="L19" s="2" t="s"/>
+      <x:c r="M19" s="2" t="s"/>
+      <x:c r="N19" s="2" t="s"/>
+      <x:c r="O19" s="2" t="s"/>
+      <x:c r="P19" s="2" t="s"/>
+      <x:c r="Q19" s="2" t="s"/>
+      <x:c r="R19" s="2" t="s"/>
+      <x:c r="S19" s="2" t="s"/>
+      <x:c r="T19" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Lugi George maher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود يوسف على امين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Youssef Ali Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240379</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45929.3357704861</x:v>
+        <x:v>45930.4166841088</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45929.3357704861</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45909.9010288194</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Hala Hany Ramadan Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد فهمى عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
   </x:si>
   <x:si>
     <x:t>1200320</x:t>
@@ -317,7 +308,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +608,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1252,7 +1243,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.9010288194</x:v>
+        <x:v>45906.4157806366</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1269,38 +1260,6 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45906.4157806366</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250187</x:t>
+  </x:si>
+  <x:si>
+    <x:t>لجين فتحى احمد محمد حنفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lujain Fathy Ahmed Mohamed Hanafi</x:t>
   </x:si>
   <x:si>
     <x:t>1240126</x:t>
@@ -308,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -608,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T19"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1051,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45918.4944033218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1083,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45930.4166841088</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1115,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45929.3357704861</x:v>
+        <x:v>45930.4166841088</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1147,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45929.3357704861</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1179,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1211,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1243,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1260,6 +1269,38 @@
       <x:c r="R19" s="2" t="s"/>
       <x:c r="S19" s="2" t="s"/>
       <x:c r="T19" s="2" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:20">
+      <x:c r="A20" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E20" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s"/>
+      <x:c r="G20" s="2" t="s"/>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s"/>
+      <x:c r="J20" s="2" t="s"/>
+      <x:c r="K20" s="2" t="s"/>
+      <x:c r="L20" s="2" t="s"/>
+      <x:c r="M20" s="2" t="s"/>
+      <x:c r="N20" s="2" t="s"/>
+      <x:c r="O20" s="2" t="s"/>
+      <x:c r="P20" s="2" t="s"/>
+      <x:c r="Q20" s="2" t="s"/>
+      <x:c r="R20" s="2" t="s"/>
+      <x:c r="S20" s="2" t="s"/>
+      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,6 +60,15 @@
     <x:t>Ahmed Mohamed Ezzat Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>4250172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد وليد رمضان فكرى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Khaled Walid Ramadan Fikry</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240055</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
+    <x:t>4250184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ابراهيم عبدالحميد ابوالعنين عبدالكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ibrahim Abdel Hamid Abu Al-Anin Abdel Karim</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250187</x:t>
   </x:si>
   <x:si>
@@ -157,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Youssef Ali Amin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم احمد سمير محمد على الشامى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Maryam Ahmed Samir</x:t>
   </x:si>
   <x:si>
     <x:t>1240379</x:t>
@@ -317,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -804,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.8435893171</x:v>
+        <x:v>45934.8826856481</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.8846416667</x:v>
+        <x:v>45927.8435893171</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4224606482</x:v>
+        <x:v>45907.8846416667</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4148197569</x:v>
+        <x:v>45907.4224606482</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4708532407</x:v>
+        <x:v>45907.4148197569</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.4708532407</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.4224887731</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.5063372685</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.4944033218</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45934.8832896181</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45930.4166841088</x:v>
+        <x:v>45918.4944033218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45929.3357704861</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45930.4166841088</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45934.8842536227</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45929.3357704861</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1328,102 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45927.4628210995</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45913.6394548958</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/GENS210_Lecture-35044.xlsx
+++ b/downloaded_files/GENS210_Lecture-35044.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,6 +121,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله محمد بخيت عبد العظيم نصير</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdulla Mohamed Bekhit Abdel Azeem Nussir</x:t>
   </x:si>
   <x:si>
     <x:t>2240008</x:t>
@@ -344,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1055,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.4224887731</x:v>
+        <x:v>45937.5716466782</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.5063372685</x:v>
+        <x:v>45927.4224887731</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45934.8832896181</x:v>
+        <x:v>45927.5063372685</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.4944033218</x:v>
+        <x:v>45934.8832896181</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45918.4944033218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45930.4166841088</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45934.8842536227</x:v>
+        <x:v>45930.4166841088</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45929.3357704861</x:v>
+        <x:v>45934.8842536227</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4282896181</x:v>
+        <x:v>45929.3357704861</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45927.4628210995</x:v>
+        <x:v>45927.4282896181</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.6394548958</x:v>
+        <x:v>45927.4628210995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4157806366</x:v>
+        <x:v>45913.6394548958</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1433,38 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45906.4157806366</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
